--- a/biology/Botanique/Tree_That_Owns_Itself/Tree_That_Owns_Itself.xlsx
+++ b/biology/Botanique/Tree_That_Owns_Itself/Tree_That_Owns_Itself.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Tree That Owns Itself, en français « l'arbre qui se possède lui-même », est un chêne blanc d'Amérique qui aurait la propriété légale de lui-même et des terres qui l'entourent à environ 2,4 mètres de sa base. L'arbre, aussi appelé Jackson Oak (le « chêne de Jackson »), se trouve à l'angle des rues South Finley et Dearing à Athens (Géorgie). L'arbre original est tombé en 1942, cependant, un plant fut réalisé à partir de l'un de ses glands et planté au même endroit. L'arbre actuel est parfois nommé Son of the Tree That Owns Itself, c'est-à-dire le « fils de l'arbre qui se possède lui-même ». Les deux arbres sont souvent apparus dans des publications nationales et le lieu est un parc régional.
@@ -512,7 +524,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Tree That Owns Itself » (voir la liste des auteurs).</t>
         </is>
